--- a/static/FW25 Linesheets Data Final.xlsx
+++ b/static/FW25 Linesheets Data Final.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahul/Downloads/Line Sheet/Line-Sheet-Manager/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suntronics\Desktop\Code\Line-Sheet-Manager\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2390E8C4-AC24-0748-9D04-1CBD225F3F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="14700" windowHeight="17140" xr2:uid="{84900C31-3948-3E4E-BA5B-44C6A0DE3FAD}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="14700" windowHeight="17140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -599,24 +598,24 @@
     <t>WINE, BLACK</t>
   </si>
   <si>
-    <t>FF-149 '2 PIECES'</t>
-  </si>
-  <si>
     <t>PRICE</t>
   </si>
   <si>
     <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>FF-149</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -679,23 +678,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1032,21 +1031,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8ACA91-8733-5943-9415-B8701A7E6AF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.69140625" customWidth="1"/>
     <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>156</v>
       </c>
@@ -1054,16 +1053,16 @@
         <v>157</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1080,7 +1079,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1097,7 +1096,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1114,7 +1113,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1131,7 +1130,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1148,7 +1147,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1165,7 +1164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1182,7 +1181,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -1199,7 +1198,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1216,7 +1215,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -1233,7 +1232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -1250,7 +1249,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -1267,7 +1266,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1284,7 +1283,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1301,7 +1300,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
@@ -1318,7 +1317,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -1335,7 +1334,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
@@ -1352,7 +1351,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
@@ -1369,7 +1368,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
@@ -1386,7 +1385,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
@@ -1403,7 +1402,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
@@ -1420,7 +1419,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
         <v>42</v>
       </c>
@@ -1437,7 +1436,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
         <v>44</v>
       </c>
@@ -1454,7 +1453,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
         <v>46</v>
       </c>
@@ -1471,7 +1470,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>47</v>
       </c>
@@ -1488,7 +1487,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
         <v>49</v>
       </c>
@@ -1505,7 +1504,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
         <v>50</v>
       </c>
@@ -1522,7 +1521,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
         <v>52</v>
       </c>
@@ -1539,7 +1538,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="3" t="s">
         <v>54</v>
       </c>
@@ -1556,7 +1555,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
         <v>55</v>
       </c>
@@ -1573,7 +1572,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
         <v>57</v>
       </c>
@@ -1590,7 +1589,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="3" t="s">
         <v>59</v>
       </c>
@@ -1607,7 +1606,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
         <v>61</v>
       </c>
@@ -1624,7 +1623,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="3" t="s">
         <v>62</v>
       </c>
@@ -1641,7 +1640,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
         <v>64</v>
       </c>
@@ -1658,7 +1657,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="3" t="s">
         <v>66</v>
       </c>
@@ -1675,7 +1674,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="3" t="s">
         <v>69</v>
       </c>
@@ -1692,7 +1691,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="3" t="s">
         <v>71</v>
       </c>
@@ -1709,7 +1708,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="3" t="s">
         <v>72</v>
       </c>
@@ -1726,7 +1725,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="3" t="s">
         <v>74</v>
       </c>
@@ -1743,7 +1742,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="3" t="s">
         <v>76</v>
       </c>
@@ -1760,7 +1759,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="3" t="s">
         <v>77</v>
       </c>
@@ -1777,7 +1776,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="3" t="s">
         <v>78</v>
       </c>
@@ -1794,7 +1793,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="3" t="s">
         <v>80</v>
       </c>
@@ -1811,9 +1810,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>184</v>
@@ -1828,7 +1827,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="3" t="s">
         <v>81</v>
       </c>
@@ -1845,7 +1844,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="3" t="s">
         <v>83</v>
       </c>
@@ -1862,7 +1861,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
         <v>85</v>
       </c>
@@ -1879,7 +1878,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" s="3" t="s">
         <v>86</v>
       </c>
@@ -1896,7 +1895,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" s="3" t="s">
         <v>87</v>
       </c>
@@ -1913,7 +1912,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
         <v>89</v>
       </c>
@@ -1930,7 +1929,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
         <v>91</v>
       </c>
@@ -1947,7 +1946,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" s="3" t="s">
         <v>93</v>
       </c>
@@ -1964,7 +1963,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
         <v>95</v>
       </c>
@@ -1981,7 +1980,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
         <v>97</v>
       </c>
@@ -1998,7 +1997,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" s="3" t="s">
         <v>99</v>
       </c>
@@ -2015,7 +2014,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" s="3" t="s">
         <v>101</v>
       </c>
@@ -2032,7 +2031,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" s="3" t="s">
         <v>103</v>
       </c>
@@ -2049,7 +2048,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" s="3" t="s">
         <v>104</v>
       </c>
@@ -2066,7 +2065,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" s="3" t="s">
         <v>105</v>
       </c>
@@ -2083,7 +2082,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" s="3" t="s">
         <v>107</v>
       </c>
@@ -2100,7 +2099,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" s="3" t="s">
         <v>109</v>
       </c>
@@ -2117,7 +2116,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" s="3" t="s">
         <v>111</v>
       </c>
@@ -2134,7 +2133,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" s="3" t="s">
         <v>113</v>
       </c>
@@ -2151,7 +2150,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" s="3" t="s">
         <v>115</v>
       </c>
@@ -2168,7 +2167,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" s="3" t="s">
         <v>117</v>
       </c>
@@ -2185,7 +2184,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" s="3" t="s">
         <v>119</v>
       </c>
@@ -2202,7 +2201,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" s="3" t="s">
         <v>121</v>
       </c>
@@ -2219,7 +2218,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" s="3" t="s">
         <v>122</v>
       </c>
@@ -2236,7 +2235,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" s="3" t="s">
         <v>123</v>
       </c>
@@ -2253,7 +2252,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" s="3" t="s">
         <v>125</v>
       </c>
@@ -2270,7 +2269,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" s="3" t="s">
         <v>126</v>
       </c>
@@ -2287,7 +2286,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" s="3" t="s">
         <v>127</v>
       </c>
@@ -2304,7 +2303,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" s="3" t="s">
         <v>129</v>
       </c>
@@ -2321,7 +2320,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" s="3" t="s">
         <v>131</v>
       </c>
@@ -2338,7 +2337,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" s="3" t="s">
         <v>133</v>
       </c>
@@ -2355,7 +2354,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" s="3" t="s">
         <v>135</v>
       </c>
@@ -2372,7 +2371,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" s="3" t="s">
         <v>136</v>
       </c>
@@ -2389,7 +2388,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" s="3" t="s">
         <v>138</v>
       </c>
@@ -2406,7 +2405,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" s="3" t="s">
         <v>140</v>
       </c>
@@ -2423,7 +2422,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" s="3" t="s">
         <v>141</v>
       </c>
@@ -2440,7 +2439,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" s="3" t="s">
         <v>143</v>
       </c>
@@ -2457,7 +2456,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" s="3" t="s">
         <v>145</v>
       </c>
@@ -2474,7 +2473,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" s="3" t="s">
         <v>146</v>
       </c>
@@ -2491,7 +2490,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" s="3" t="s">
         <v>147</v>
       </c>
@@ -2508,7 +2507,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87" s="3" t="s">
         <v>149</v>
       </c>
@@ -2525,7 +2524,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88" s="3" t="s">
         <v>151</v>
       </c>
@@ -2542,7 +2541,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89" s="3" t="s">
         <v>152</v>
       </c>
@@ -2559,7 +2558,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90" s="3" t="s">
         <v>153</v>
       </c>
@@ -2576,7 +2575,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91" s="3" t="s">
         <v>154</v>
       </c>
@@ -2593,7 +2592,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92" s="3" t="s">
         <v>155</v>
       </c>
@@ -2610,7 +2609,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="C93" t="s">
         <v>182</v>
       </c>
